--- a/biology/Médecine/Ligament_de_la_nuque/Ligament_de_la_nuque.xlsx
+++ b/biology/Médecine/Ligament_de_la_nuque/Ligament_de_la_nuque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament de la nuque (ou ligament nuchal ou ligament cervical postérieur ou septum nuchal) est une large membrane fibreuse qui est le prolongement supérieur du ligament supra-spinal au niveau cervical.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament de la nuque a une forme triangulaire. Sa base s’insère sur la protubérance occipitale externe et sur la crête occipitale externe. Son sommet s’insère sur le processus épineux de la vertèbre proéminente[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament de la nuque a une forme triangulaire. Sa base s’insère sur la protubérance occipitale externe et sur la crête occipitale externe. Son sommet s’insère sur le processus épineux de la vertèbre proéminente.
 Le ligament forme une lame fibreuse qui rejoint la partie postérieure du tubercule de l'atlas
 Son bord antérieur s'insère sur les processus épineux des vertèbres cervicales. 
 Son bord postérieur est sous cutané et s'étend le l'inion au processus épineux de la vertèbre proéminente.
@@ -547,7 +561,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament de la nuque sert à soutenir le poids de la tête.
 </t>
@@ -578,9 +594,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une intervention sur le ligament de la nuque fait partie des possibilités de traitement de la malformation d'Arnold-Chiari[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une intervention sur le ligament de la nuque fait partie des possibilités de traitement de la malformation d'Arnold-Chiari.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'homme ce ligament n'est que le rudiment d'un important ligament élastique qui, chez certains autres animaux, en particulier les ongulés, sert à maintenir le poids de la tête. Il lui sert plus spécifiquement à stabiliser sa tête et à maintenir son équilibre pendant la course tandis que les singes et les Australopithèques en sont dépourvus : il pourrait ainsi être consubstantiel à l'humanisation[3] en permettant par sa présence la bipédie permanente et les courses de longues durées (endurance).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'homme ce ligament n'est que le rudiment d'un important ligament élastique qui, chez certains autres animaux, en particulier les ongulés, sert à maintenir le poids de la tête. Il lui sert plus spécifiquement à stabiliser sa tête et à maintenir son équilibre pendant la course tandis que les singes et les Australopithèques en sont dépourvus : il pourrait ainsi être consubstantiel à l'humanisation en permettant par sa présence la bipédie permanente et les courses de longues durées (endurance).
 </t>
         </is>
       </c>
